--- a/RediffTask.xlsx
+++ b/RediffTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1438072-813D-4516-8249-B34E5BDB7F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4FE32-8704-4B87-AB0D-DF1ABD5011F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8A346281-38E8-4C3E-83F3-29BDECC55BDE}"/>
   </bookViews>
